--- a/Treatment Papers/Treatment_Papers.xlsx
+++ b/Treatment Papers/Treatment_Papers.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <si>
     <t xml:space="preserve">Title</t>
   </si>
@@ -26,6 +26,9 @@
     <t xml:space="preserve">Year</t>
   </si>
   <si>
+    <t xml:space="preserve">DOI_Link</t>
+  </si>
+  <si>
     <t xml:space="preserve">Abstract</t>
   </si>
   <si>
@@ -45,6 +48,9 @@
   </si>
   <si>
     <t xml:space="preserve">Trials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dx.doi.org/10.1186%2Fs13063-019-3872-8</t>
   </si>
   <si>
     <t xml:space="preserve">Background
@@ -72,6 +78,9 @@
     <t xml:space="preserve">Philip Asherson, Lena Johansson, Rachel Holland, Tom Fahy, Andrew Forester, Sheila Howitt, Stephen Lawrie, John Strang, Susan Young, Sabine Landau, and Lindsay Thomson</t>
   </si>
   <si>
+    <t xml:space="preserve">https://dx.doi.org/10.1186%2Fs13063-019-3705-9</t>
+  </si>
+  <si>
     <t xml:space="preserve">Background
 Attention-deficit/hyperactivity disorder (ADHD) is a highly prevalent disorder, seen in 20–30% of young adult prisoners. Pharmacoepidemiological studies, a small randomised controlled trial and open trial data of methylphenidate suggest clinically significant reductions in ADHD symptoms, emotional dysregulation, disruptive behaviour and increased engagement with educational activities. Yet, routine treatment of ADHD in offenders is not yet established clinical practice. There is continued uncertainty about the clinical response to methylphenidate (MPH), a first-line treatment for ADHD, in offenders, who often present with an array of complex mental health problems that may be better explained by states of inattentive, overactive, restless and impulsive behaviours. To address this problem, we will conduct an efficacy trial to establish the short-term effects of osmotic-controlled release oral delivery system (OROS)-methylphenidate (Concerta XL), an extended release formulation of MPH, on ADHD symptoms, emotional dysregulation and behaviour.
 Methods
@@ -91,6 +100,9 @@
     <t xml:space="preserve">BMC Psychiatry</t>
   </si>
   <si>
+    <t xml:space="preserve">https://dx.doi.org/10.1186%2Fs12888-019-2276-3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Background
 Up to 60% of children with Attention-Deficit/Hyperactivity Disorder (ADHD) meet diagnostic criteria for at least one anxiety disorder, including Social, Generalized and/or Separation Disorder. Anxiety in children with ADHD has been shown to be associated with poorer child and family functioning. Small pilot studies suggest that treating anxiety in children with ADHD using cognitive-behavioral therapy (CBT) has promising benefits. In a fully powered randomized controlled trial (RCT), we aim to investigate the efficacy of an existing CBT intervention adapted for children with ADHD and comorbid anxiety compared with usual care.
 Methods
@@ -107,6 +119,9 @@
     <t xml:space="preserve">Manfred Döpfner, Josepha Katzmann, Charlotte Hanisch, Jörg M. Fegert, Michael Kölch, Anne Ritschel, Anne-Katrin Treier, Martin Hellmich, Veit Roessner, Ulrike Ravens-Sieberer, Tobias Banaschewski, Anja Görtz-Dorten</t>
   </si>
   <si>
+    <t xml:space="preserve">https://dx.doi.org/10.1186%2Fs12888-019-2239-8</t>
+  </si>
+  <si>
     <t xml:space="preserve">Background
 The terms affective dysregulation (AD) and irritability describe transdiagnostic dimensions and are characterized by an excessive reactivity to negative emotional stimuli with an affective (anger) and a behavioral component (aggression). Due to early onset, high prevalence and persistence, as well as developmental comorbidity, AD in childhood is one of the most psychosocially impairing and cost-intensive mental health conditions. AD is especially prevalent in children in the youth welfare service. Despite continuous research, there remains a substantial need for diagnostic approaches and optimization of individualized treatment strategies in order to improve outcomes and reduce the subjective and economic burden.
 Methods
@@ -121,6 +136,9 @@
     <t xml:space="preserve">Julia O. Linke, Emily Jones, David Pagliaccio, Caroline Swetlitz, Krystal M. Lewis, Wendy K. Silverman, Yair Bar-Haim, Daniel S. Pine, and Melissa A. Brotman</t>
   </si>
   <si>
+    <t xml:space="preserve">https://dx.doi.org/10.1186%2Fs12888-019-2224-2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Background
 Attention bias modification training (ABMT) and cognitive behavioral therapy (CBT) likely target different aspects of aberrant threat responses in anxiety disorders and may be combined to maximize therapeutic benefit. However, studies investigating the effect of ABMT in the context of CBT have yielded mixed results. Here, we propose an enhanced ABMT to target the attentional bias towards threat, in addition to classic CBT for anxiety disorders in youth. This enhanced ABMT integrates the modified dot-probe task used in previous studies, where a target is always presented at the previous location of the neutral and not the simultaneously presented threatening stimulus, with a visual search, where the targets are always presented distally of threatening distractors. These two training elements (modified dot-probe and visual search) are embedded in an engaging game to foster motivation and adherence. Our goal is to determine the efficacy of the enhanced ABMT in the context of CBT. Further, we aim to replicate two previous findings: (a) aberrant amygdala connectivity being the neurobiological correlate of the attentional bias towards threat at baseline; and (b) amygdala connectivity being a mediator of the ABMT effect. We will also explore moderators of treatment response (age, sex, depressive symptoms and irritability) on a behavioral and neuronal level.
 Methods
@@ -138,6 +156,9 @@
     <t xml:space="preserve">Pilot Feasibility Stud</t>
   </si>
   <si>
+    <t xml:space="preserve">https://dx.doi.org/10.1186%2Fs40814-019-0463-0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Background
 Optimal mental health is critical for a child’s learning and academic functioning. As a universal service, early education centres play an important role in promoting children’s mental health. Social-emotional learning programs are efficacious in reducing behavioural difficulties, enhancing competence, and improving learning abilities. Mindfulness practices, known to promote health and wellbeing in adults, have been adapted to education programs for younger populations, including pre-school children. Despite an increasing use of mindfulness-based programs in pre-school settings, there is a limited number of randomised trials and paucity of data on implementation fidelity of these programs. ‘Early Minds’ is a mindfulness-based program developed by Smiling Mind for 3–5-year-old children. This paper describes a protocol of a pilot randomised control trial, evaluating the implementation of the program in early learning centres (ELCs, i.e. pre-schools) in Melbourne, Australia. The primary aim of this pilot study is to examine the feasibility, acceptability, and fidelity of the program. The secondary aims are to assess the acceptability of the design and measures and to investigate preliminary impacts of the program on child social-emotional outcomes.
 Methods
@@ -155,6 +176,9 @@
     <t xml:space="preserve">Behav Res Ther</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.brat.2019.04.007</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pediatric irritability is prevalent and impairing, yet little is known about its pathophysiology and treatment. In this article, we build on our and others' previous work to posit core mechanisms of irritability operating across the brain, behavior, and environment. Specifically, we propose proximal processes that surround the symptomatology of irritability and are potential targets for an exposure-based cognitive-behavioral therapy (CBT) for irritability that our group has developed. The heart of this model focuses on neurocognitive processes: youth's encoding of nonreward and threat stimuli, which involves prediction error signaling in the brain, and cognitive control in the context of frustration. Alterations in these processes are theorized to be central to chronic, severe irritability. Environmental responses to youth's symptom expression are also examined. Exposure-based CBT for irritability utilizes controlled, in vivo exposure to nonreward and threat stimuli with the aim to engage cognitive control and target top-down regulation of frustration. This intervention integrates selected parent management training techniques to target symptom reinforcement processes. Continued pathophysiological and treatment studies of irritability will not only refine our emerging understanding of the phenotype, but also inform broader questions on the brain and behavioral mechanisms of CBT efficacy.</t>
   </si>
   <si>
@@ -165,6 +189,9 @@
   </si>
   <si>
     <t xml:space="preserve">J Am Acad Child Adolesc Psychiatry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dx.doi.org/10.1016%2Fj.jaac.2018.11.013</t>
   </si>
   <si>
     <t xml:space="preserve">Objective:
@@ -186,6 +213,9 @@
     <t xml:space="preserve">Transl Psychiatry</t>
   </si>
   <si>
+    <t xml:space="preserve">https://dx.doi.org/10.1038%2Fs41398-018-0332-2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Depression in adolescence is frequently characterised by symptoms of irritability. Fluoxetine is the antidepressant with the most favourable benefit:risk ratio profile to treat adolescent depression, but the neural mechanisms underlying antidepressant drugs in the young brain are still poorly understood. Previous studies have characterised the neural effects of long-term fluoxetine treatment in depressed adolescents, but these are limited by concurrent mood changes and a lack of placebo control. There is also recent evidence suggesting that fluoxetine reduces the processing of anger in young healthy volunteers, which is consistent with its effect for the treatment of irritability in this age group, but this remains to be investigated in depressed adolescents. Here we assessed the effects of a single, first dose of 10 mg fluoxetine vs. placebo on neural response to anger cues using fMRI in a sample of adolescents with Major Depressive Disorder (MDD) who had been recently prescribed fluoxetine. As predicted, adolescents receiving fluoxetine showed reduced activity in response to angry facial expressions in the amygdala-hippocampal region relative to placebo. Activity in the dorsal anterior cingulate cortex (dACC) was also increased. No changes in symptoms were observed. These results demonstrate, for the first time in depressed adolescents, that fluoxetine has immediate neural effects on core components of the cortico-limbic circuitry prior to clinical changes in mood. The effect on anger is consistent with our previous work and could represent a key mechanism through which fluoxetine may act to alleviate irritability symptoms in adolescent depression.</t>
   </si>
   <si>
@@ -196,6 +226,9 @@
   </si>
   <si>
     <t xml:space="preserve">Simone P. Haller, Joel Stoddard, Caroline MacGillivray, Kelsey Stiles, Gretchen Perhamus, Ian S. Penton-Voak, Yair Bar-Haim, Marcus R. Munafò, Melissa A. Brotman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dx.doi.org/10.1186%2Fs13063-018-2960-5</t>
   </si>
   <si>
     <t xml:space="preserve">Background
@@ -215,6 +248,9 @@
     <t xml:space="preserve">BMC Psychol</t>
   </si>
   <si>
+    <t xml:space="preserve">https://dx.doi.org/10.1186%2Fs40359-018-0261-0</t>
+  </si>
+  <si>
     <t xml:space="preserve">BackgroundInterventions for adolescents with externalizing behavior problems are generally found to be only moderately effective, and treatment responsiveness is variable. Therefore, this study aims to increase intervention effectiveness by examining effective approaches to train emotion regulation, which is considered to be a crucial mechanism involved in the development of externalizing behavior problems. Specifically, we aim to disentangle a cognitive and behavioral approach to emotion regulation training.MethodsA randomized controlled parallel-group study with two arms will be used. Participants are adolescents between 12 and 16 years old, with elevated levels of externalizing behavior problems. Participants will be randomly assigned to either the control condition or the intervention condition. Participants in the intervention condition receive both a cognitive and behavioral emotion regulation module, but in different sequences. Primary outcome measures are emotion regulation skills, emotion regulation strategies, and externalizing behavior problems. Questionnaires will be completed at pre-test, in-between modules, and post-test. Moreover, intensive longitudinal data is collected, as adolescents will complete weekly and daily measures.DiscussionGaining insight into which approaches to emotion regulation training are more effective, and for whom, is important because it may lead to the adaptation of effective intervention programs for adolescents with externalizing behavior problems. Eventually, this could lead to individually tailored evidence-based interventions.</t>
   </si>
   <si>
@@ -222,6 +258,9 @@
   </si>
   <si>
     <t xml:space="preserve">Julia Geissler, Thomas Jans, Tobias Banaschewski, Katja Becker, Tobias Renner, Daniel Brandeis, Manfred Döpfner, Christina Dose, Christopher Hautmann, Martin Holtmann, Carolin Jenkner, Sabina Millenet, Marcel Romanos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dx.doi.org/10.1186%2Fs13063-018-2635-2</t>
   </si>
   <si>
     <t xml:space="preserve">Background
@@ -238,6 +277,9 @@
     <t xml:space="preserve">Manfred Döpfner, Christopher Hautmann, Christina Dose, Tobias Banaschewski, Katja Becker, Daniel Brandeis, Martin Holtmann, Thomas Jans, Carolin Jenkner, Sabina Millenet, Tobias Renner, Marcel Romanos, Elena von Wirth</t>
   </si>
   <si>
+    <t xml:space="preserve">https://dx.doi.org/10.1186%2Fs12888-017-1433-9</t>
+  </si>
+  <si>
     <t xml:space="preserve">Background
 The ESCAschool study addresses the treatment of school-age children with attention-deficit/hyperactivity disorder (ADHD) in a large multicentre trial. It aims to investigate three interrelated topics: (i) Clinical guidelines often recommend a stepped care approach, including different treatment strategies for children with mild to moderate and severe ADHD symptoms, respectively. However, this approach has not yet been empirically validated. (ii) Behavioural interventions and neurofeedback have been shown to be effective, but the superiority of combined treatment approaches such as medication plus behaviour therapy or medication plus neurofeedback compared to medication alone remains questionable. (iii) Growing evidence indicates that telephone-assisted self-help interventions are effective in the treatment of ADHD. However, larger randomised controlled trials (RCTs) are lacking. This report presents the ESCAschool trial protocol. In an adaptive treatment design, two RCTs and additional observational treatment arms are considered.
 Methods
@@ -255,6 +297,9 @@
     <t xml:space="preserve">BMJ Open</t>
   </si>
   <si>
+    <t xml:space="preserve">https://dx.doi.org/10.1136%2Fbmjopen-2016-014158</t>
+  </si>
+  <si>
     <t xml:space="preserve">Introduction
 Up to 70% of children with attention-deficit/hyperactivity disorder (ADHD) experience sleep problems. We have demonstrated the efficacy of a brief behavioural intervention for children with ADHD in a large randomised controlled trial (RCT) and now aim to examine whether this intervention is effective in real-life clinical settings when delivered by paediatricians or psychologists. We will also assess the cost-effectiveness of the intervention.
 Methods and analysis
@@ -269,6 +314,9 @@
     <t xml:space="preserve">Linda Kersten, Martin Prätzlich, Sandra Mannstadt, Katharina Ackermann, Gregor Kohls, Helena Oldenhof, Daniel Saure, Katrin Krieger, Beate Herpertz-Dahlmann, Arne Popma, Christine M. Freitag, Robert L. Trestman, Christina Stadler</t>
   </si>
   <si>
+    <t xml:space="preserve">https://dx.doi.org/10.1186%2Fs13063-016-1705-6</t>
+  </si>
+  <si>
     <t xml:space="preserve">Background
 In Europe, the number of females exhibiting oppositional defiant disorder (ODD) and conduct disorder (CD) is growing. Many of these females live in youth welfare institutions. Consequently, there is a great need for evidence-based interventions within youth welfare settings. A recently developed approach targeting the specific needs of girls with ODD and CD in residential care is START NOW. The aim of this group-based behavioural skills training programme is to specifically enhance emotional regulation capacities to enable females with CD or ODD to appropriately deal with daily-life demands. It is intended to enhance psychosocial adjustment and well-being as well as reduce oppositional and aggressive behaviour. We present the study protocol (version 4.1; 10 February 2016) of the FemNAT-CD intervention trial titled ‘Group-Based Treatment of Adolescent Female Conduct Disorders: The Central Role of Emotion Regulation’.
 Methods/design
@@ -286,6 +334,9 @@
     <t xml:space="preserve">Clin Case Stud</t>
   </si>
   <si>
+    <t xml:space="preserve">https://dx.doi.org/10.1177%2F1534650116669431</t>
+  </si>
+  <si>
     <t xml:space="preserve">Disruptive mood dysregulation disorder (DMDD) is a relatively new diagnosis in the field of childhood onset disorders. Characterized by both behavior and mood disruption, DMDD is a purportedly unique clinical presentation with few relevant treatment studies to date. The current case study presents the application of cognitive-behavioral therapy (CBT) for anger and aggression in a 9-year-old girl with DMDD, co-occurring attention deficit hyperactivity disorder (ADHD), and a history of unspecified anxiety disorder. At the time of intake evaluation, she demonstrated three to four temper outbursts and two to three episodes of aggressive behavior per week, in addition to prolonged displays of non-episodic irritability lasting hours or days at a time. A total of 12 CBT sessions were conducted over 12 weeks and 5 follow-up booster sessions were completed over a subsequent 3-month period. Irritability-related material was specially designed to target the DMDD clinical presentation. Post-treatment and 3-month follow-up assessments, including independent evaluation, demonstrated significant decreases in the target symptoms of anger, aggression, and irritability. Although the complexities of diagnosing and treating DMDD warrant extensive research inquiry, the current case study suggests CBT for anger and aggression as a viable treatment for affected youth.
 </t>
   </si>
@@ -297,6 +348,9 @@
   </si>
   <si>
     <t xml:space="preserve">Front Psychiatry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dx.doi.org/10.3389%2Ffpsyt.2016.00157</t>
   </si>
   <si>
     <t xml:space="preserve">Context
@@ -316,6 +370,9 @@
     <t xml:space="preserve">J Child Adolesc Psychopharmacol</t>
   </si>
   <si>
+    <t xml:space="preserve">https://dx.doi.org/10.1089%2Fcap.2015.0112</t>
+  </si>
+  <si>
     <t xml:space="preserve">Objective: Diagnostic criteria for disruptive mood dysregulation disorder (DMDD) require 1) periodic rageful outbursts and 2) disturbed mood (anger or irritability) that persists most of the time in between outbursts. Stimulant monotherapy, methodically titrated, often culminates in remission of severe aggressive behavior, but it is unclear whether those with persistent mood symptoms benefit less.This study examined the association between the presence of persistent mood disturbances and treatment outcomes among children with attention-deficit/hyperactivity disorder (ADHD) and periodic aggressive, rageful outbursts.
 Methods: Within a cohort of children with ADHD and aggressive behavior (n = 156), the prevalence of persistent mood symptoms was evaluated at baseline and after completion of a treatment protocol that provided stimulant monotherapy and family-based behavioral treatment (duration mean [SD] = 70.04 [37.83] days). The relationship of persistent mood symptoms on posttreatment aggressive behavior was assessed, as well as changes in mood symptoms.
 Results: Aggressive behavior and periodic rageful outbursts remitted among 51% of the participants. Persistent mood symptoms at baseline did not affect the odds that aggressive behavior would remit during treatment. Reductions in symptoms of sustained mood disturbance accompanied reductions in periodic outbursts. Children who at baseline had high irritability but low depression ratings showed elevated aggression scores at baseline and after treatment; however, they still displayed large reductions in aggression.
@@ -328,6 +385,9 @@
     <t xml:space="preserve">Denis G. Sukhodolsky, Brent C. Vander Wyk, Jeffrey A. Eilbott, Spencer A. McCauley, Karim Ibrahim, Michael J. Crowley, Kevin A. Pelphrey</t>
   </si>
   <si>
+    <t xml:space="preserve">https://dx.doi.org/10.1089%2Fcap.2015.0164</t>
+  </si>
+  <si>
     <t xml:space="preserve">Objective: We present the rationale and design of a randomized controlled trial of cognitive-behavioral therapy (CBT) for aggression in children and adolescents, which is conducted in response to the National Institute of Mental Health (NIMH) Research Domain Criteria (RDoC) approach initiative. Specifically, the study is focused on the brain-behavior associations within the RDoC construct of frustrative non-reward. On the behavioral level, this construct is defined by reactions elicited in response to withdrawal or prevention of reward, most notably reactive aggression. This study is designed to test the functional magnetic resonance (fMRI) and electrophysiological (EEG) correlates of aggression and its reduction after CBT.
 Methods: Eighty children and adolescents with high levels of aggression across multiple traditional diagnostic categories, ages 8–16, will be randomly assigned to receive 12 sessions of CBT or 12 sessions of supportive psychotherapy. Clinical outcomes will be measured by the ratings of aggressive behavior collected at baseline, midpoint, and endpoint evaluations, and by the Improvement Score of the Clinical Global Impressions Scale assigned by an independent evaluator (blinded rater). Subjects will also perform a frustration-induction Go-NoGo task and a task of emotional face perception during fMRI scanning and EEG recording at baseline and endpoint.
 Results: Consistent with the NIMH strategic research priorities, if functional neuroimaging and EEG variables can identify subjects who respond to CBT for aggression, this can provide a neuroscience-based classification scheme that will improve treatment outcomes for children and adolescents with aggressive behavior.
@@ -341,6 +401,9 @@
   </si>
   <si>
     <t xml:space="preserve">Journal of the American Academy of Child &amp; Adolescent Psychiatry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.jaac.2018.11.013</t>
   </si>
   <si>
     <t xml:space="preserve">Objective
@@ -359,6 +422,9 @@
     <t xml:space="preserve">Kenneth Towbin, Pablo Vidal-Ribas, Melissa A. Brotman, Andrew Pickles, Katherine V. Miller, Ariela Kaiser, Aria D. Vitale, Chana Engel, Gerald P. Overman, Mollie Davis, Beth Lee, Cheri McNeil, Wanda Wheeler, Catherine H. Yokum, Catherine T. Haring, Alexandra Roule, Caroline  G. Wambach, Banafsheh Sharif-Askary, Argyris Stringaris</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.jaac.2019.05.015</t>
+  </si>
+  <si>
     <t xml:space="preserve">Objective
 Despite the clinical importance of chronic and severe irritability, there is a paucity of controlled trials for its pharmacological treatment. Here, we examine the effects of adding citalopram (CTP) to methylphenidate (MPH) in the treatment of chronic severe irritability in youth using a double-blind randomized placebo-controlled design.
 Method
@@ -378,6 +444,9 @@
     <t xml:space="preserve">Journal of Child Psychology and Psychiatry</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1111/jcpp.13083</t>
+  </si>
+  <si>
     <t xml:space="preserve">Background: We have demonstrated the efficacy of a brief behavioral intervention for sleep in children with ADHD in a previous randomized controlled trial and now aim to examine whether this intervention is effective and cost-effective when delivered by pediatricians or psychologists in community settings.
 Methods: Translational, cluster-randomized trial of a behavioral intervention versus usual care from 19th January, 2015 to 30th June, 2017. Participants (n = 361) were children aged 5-13 years with ADHD and parent report of a moderate/severe sleep problem who met criteria for American Academy of Sleep Medicine criteria for chronic insomnia disorder, delayed sleep-wake phase disorder, or were experiencing sleep-related anxiety. Participants were randomized at the level of the pediatrician (n = 61) to intervention (n = 183) or usual care (n = 178). Families in the intervention group received two consultations with a pediatrician or a psychologist covering sleep hygiene and tailored behavioral strategies.
 Results: In an intention-to-treat analysis, at 3 and 6 months respectively, the proportion of children with moderate to severe sleep problems was lower in the intervention (28.0%, 35.8%) compared with usual care group (55.4%, 60.1%; 3 month: risk ratio (RR): 0.51, 95% CI 0.37, 0.70, p &lt; .001; 6 month: RR: 0.58; 95% CI 0.45, 0.76, p &lt; .001). Intervention children had improvements across multiple Children's Sleep Habits Questionnaire subscales at 3 and 6 months. No benefits of the intervention were observed in other domains. Cost-effectiveness of the intervention was AUD 13 per percentage point reduction in child sleep problem at 3 months.
@@ -394,6 +463,9 @@
     <t xml:space="preserve">Behavior Therapy</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.beth.2019.07.004</t>
+  </si>
+  <si>
     <t xml:space="preserve">Recent work has drawn attention to the previously underrecognized role that irritability plays in childhood psychopathology. Despite increased recognition of the clinical importance of pediatric irritability as a transdiagnostic symptom dimension, there is a lack of evidence-based treatments for this population that simultaneously and equitably addresses both child and contextual (e.g., parental) factors implicated in the development and maintenance of associated emotional and behavioral difficulties. In the current pilot study, we adapted the Unified Protocol for Transdiagnostic Treatment of Emotional Disorders in Children (UP-C) for the treatment of pediatric irritability in a sample of 19 children (ages 8 to 12) with primary presenting concerns of irritability and/or disruptive behaviors. Results supported the feasibility and acceptability of this treatment and provided preliminary evidence that such an approach may yield improved outcomes for symptoms of pediatric irritability and disruptive behaviors. Implications of these findings for future research and clinical interventions for pediatric irritability are discussed.</t>
   </si>
   <si>
@@ -406,6 +478,9 @@
     <t xml:space="preserve">Journal of Consulting and Clinical Psychology</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1037/ccp0000456</t>
+  </si>
+  <si>
     <t xml:space="preserve">Objective: To examine the preliminary effectiveness of a modular, transdiagnostic, behavioral/cognitive–behavioral intervention (MATCH) compared with standard manualized treatments (SMT) and usual care (UC) for treating youth with severe irritability. Method: We analyzed data from an effectiveness trial in which treatment-referred youths (N = 174; Mage = 10.6 years; 70% boys) were randomized to receive MATCH, SMT, or UC (ns = 53–62). Masked assessments of irritability, diagnoses, impairment, and internalizing, externalizing, total, and top problems were collected from caregivers and youths at pre- and posttreatment, weekly during treatment, and quarterly through 2-year follow-up. Baseline measures of irritability and impairment were used to identify a subsample characterized by severe irritability and mood dysregulation (SIMD; n = 81; Mage = 10.2 years; 69% boys; ns = 24–31 across conditions). Longitudinal multilevel models and ANOVAs were estimated to examine numerous clinical outcomes within and between conditions. Results: Among youth with SIMD, MATCH produced faster improvements than UC and SMT, with medium or large effect sizes in two thirds of all comparisons tested (Mdn ES = 0.60). Although SIMD youths in all conditions showed reductions in DSM diagnoses, only MATCH predicted significantly fewer posttreatment diagnoses than UC (averaging 1.0 fewer; ES = 0.93). Finally, among the entire sample, MATCH and SMT equivalently outperformed UC in reducing irritability (ES = 0.49) and the effects of each treatment condition on other outcomes were not moderated by baseline irritability. Conclusions: Extant behavioral/cognitive–behavioral psychotherapies—already well-established and widely used—may be helpful for treating youths with severe irritability. A transdiagnostic, modular format showed the most consistently favorable pattern of results across multiple outcomes, informants, and measurement schedules. (PsycInfo Database Record (c) 2020 APA, all rights reserved)</t>
   </si>
   <si>
@@ -416,6 +491,9 @@
   </si>
   <si>
     <t xml:space="preserve">Evidence-Based Practice in Child and Adolescent Mental Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1080/23794925.2020.1727795</t>
   </si>
   <si>
     <t xml:space="preserve">Measurement-based care (MBC) is an evidence-based approach to improving outcomes of mental health services. There is considerable interest in implementing it in clinical practice settings. However, relatively little attention has been paid to the pragmatics of developing and implementing MBC in youth mental health. This paper describes one effort to accomplish this goal. After a brief discussion of the advantages of MBC, the process, and initial implementation of the Penn State Psychiatry Clinical Assessment and Rating Evaluation System for Youth (PCARES-Youth) is described. Results of a pilot project of PCARES-Youth are presented, including a survey of clinicians about their experiences with the initiative. Finally, lessons learned and next steps of the project are discussed.</t>
@@ -497,6 +575,9 @@
     <t xml:space="preserve">Iranian Journal of Psychiatric Nursing</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.21859/ijpn-05066</t>
+  </si>
+  <si>
     <t xml:space="preserve">Introduction: Disruptive mood dysregulation disorder is a new diagnosis in the fifth edition of the Diagnostic and Statistical Manual of Mental Disorders (DSM-5) that is characterized by chronic, persistent and severe irritability in children and adolescents. According to the American Psychological Association, these children are at risk of polar depression or anxiety disorders in adulthood. Since emotions play a key role in this disorder, the current research aimed at studying the efficacy of teaching emotion regulation on stress, anxiety, depression and irritability of students with disruptive mood dysregulation disorder.
 Methods: The present research was experimental with a pre-test and post-test design with a control group. Using purposive sampling, 30 junior high school students with disruptive mood dysregulation disorder were selected through a diagnostic interview, and were then randomly assigned to an experimental and a control group (each group consisted of 15 people). They answered the Stringaris emotional reactivity index and Levinda stress, depression and anxiety scale. Before applying independent variables, the pretests were taken from both groups and then the first group took part in eight 90-minute sessions of group therapy based on Gratz and Gunderson's emotion regulation training. Data were analyzed by Multivariate Analysis of Covariance (MONCOVA) method using the SPSS-21 software.
 Results: The Findings revealed that such an education decreases depression, stress, and anxiety of the experimental group. The irritability of the students with disruptive mood decreased considerably compared with the pretest and the control group.
@@ -512,6 +593,9 @@
     <t xml:space="preserve">Clinical Child Psychology and Psychiatry</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1177%2F1359104520918331</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chronic irritability is a core feature of oppositional defiant disorder (ODD) and disruptive mood dysregulation disorder (DMDD), but few irritability-specific interventions have been tested. Existing evidence-based treatments for disruptive behavior problems offer a strong template. This pilot study was conducted to develop and evaluate a brief irritability-specific module of a validated cognitive-behavioral group intervention for children (Stop Now And Plan (SNAP) Program). Stop now and plan for irritability (I-SNAP) retained core elements of SNAP in a shortened 6-week format. Community families with irritable children (M = 8.44 years, SD = 1.42) were recruited for parent and child emotion regulation skills groups. Of 18 children enrolled (72% male), 14 completed (78%). Half of children attended all six sessions, though homework compliance was lower. All parents reported favorable impressions and would recommend I-SNAP to others. Significant improvements were seen from pre- to post-treatment across parent-reported irritability, ODD symptoms, emotion regulation, and disciplinary effectiveness. This pilot study provides initial support suggesting I-SNAP may be feasible to implement and acceptable to parents. In addition, pilot analyses demonstrated that this brief group intervention was associated with positive outcomes consistent with treatment targets. This preliminary evidence supports the need for further research to assess I-SNAP’s effects on irritability relative to control groups.</t>
   </si>
   <si>
@@ -521,6 +605,9 @@
     <t xml:space="preserve">Julia Linke, Katharina Kircanski, Julia Brooks, Gretchen Perhamus, Andrea L. Gold, Melissa A. Brotman</t>
   </si>
   <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.beth.2019.05.007</t>
+  </si>
+  <si>
     <t xml:space="preserve">Severe, chronic irritability is one of the most frequently reported problems in youth referred for psychiatric care. Irritability predicts adult depressive and anxiety disorders, and long-term impairment. Reflecting this pressing public health need, severe, chronic, and impairing irritability is now codified by the DSM-5 diagnosis of disruptive mood dysregulation disorder (DMDD). Since DMDD has only recently been added as its own nosological class, efficacious treatments that specifically target severe irritability as it presents in DMDD are still being developed. In a recent pilot study, we described the general concept of exposure-based cognitive-behavioral therapy (CBT) for irritability. This mechanism-driven treatment is based on our pathophysiological model of irritability that postulates two underlying mechanisms, which potentiate each other: (1) heightened reactivity to frustrative nonreward, and (2) aberrant approach responses to threat. In this case report, we describe and illustrate the specific therapeutic techniques used to address severe irritability in an 11-year-old boy with a primary diagnosis of DMDD. Specific techniques within this CBT include motivational interviewing to build commitment and target oppositionality; creation of an anger hierarchy; in-session controlled, gradual exposure; and parent training focusing on contingency management to counteract the instrumental learning deficits in irritable youth. Parents learn to tolerate their own emotional responses to their youth’s irritability (e.g., parents engage in their own exposure) and increase their adaptive contingencies for their youth’s behavior (e.g., withdraw attention during unwanted behavior, praise desirable behavior). Future directions in the context of this CBT, such as leveraging technology, computational modeling, and pathophysiological targets, are discussed.</t>
   </si>
   <si>
@@ -531,6 +618,9 @@
   </si>
   <si>
     <t xml:space="preserve">Journal of Child and Adolescent Psychopharmacology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1089/cap.2020.0089</t>
   </si>
   <si>
     <t xml:space="preserve">Objectives: Parent management training is an effective treatment for disruptive behavior disorders but it is often underutilized in clinical settings. Access to care is limited due to logistical barriers as well as limited service availability. This study examines in an open trial the acceptability, feasibility, and clinical effects of a digital parent management training intervention that includes videoconference coaching, called “Tantrum Tool.”
@@ -893,756 +983,850 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
         <v>2020</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
         <v>2019</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3"/>
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D4" t="n">
         <v>2019</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4"/>
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
       </c>
       <c r="D5" t="n">
         <v>2019</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D6" t="n">
         <v>2019</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6"/>
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D7" t="n">
         <v>2019</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7"/>
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D8" t="n">
         <v>2019</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8"/>
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D9" t="n">
         <v>2019</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9"/>
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D10" t="n">
         <v>2019</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" t="n">
         <v>2018</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11"/>
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D12" t="n">
         <v>2018</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" t="n">
         <v>2018</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13"/>
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D14" t="n">
         <v>2017</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14"/>
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D15" t="n">
         <v>2017</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15"/>
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16" t="n">
         <v>2016</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16"/>
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="D17" t="n">
         <v>2016</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17"/>
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D18" t="n">
         <v>2016</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18"/>
+        <v>14</v>
+      </c>
+      <c r="H18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="D19" t="n">
         <v>2016</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19"/>
+        <v>54</v>
+      </c>
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="D20" t="n">
         <v>2016</v>
       </c>
       <c r="E20" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20"/>
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D21" t="n">
         <v>2019</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21"/>
+        <v>14</v>
+      </c>
+      <c r="H21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D22" t="n">
         <v>2020</v>
       </c>
       <c r="E22" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22"/>
+        <v>14</v>
+      </c>
+      <c r="H22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="D23" t="n">
         <v>2019</v>
       </c>
       <c r="E23" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23"/>
+        <v>14</v>
+      </c>
+      <c r="H23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="D24" t="n">
         <v>2020</v>
       </c>
       <c r="E24" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24"/>
+        <v>14</v>
+      </c>
+      <c r="H24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B25" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="D25" t="n">
         <v>2020</v>
       </c>
       <c r="E25" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25"/>
+        <v>14</v>
+      </c>
+      <c r="H25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D26" t="n">
         <v>2020</v>
       </c>
       <c r="E26" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="F26" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26"/>
+        <v>54</v>
+      </c>
+      <c r="H26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="D27" t="n">
         <v>2019</v>
       </c>
       <c r="E27" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27"/>
+        <v>14</v>
+      </c>
+      <c r="H27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="B28" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="C28"/>
       <c r="D28" t="n">
         <v>2018</v>
       </c>
-      <c r="E28" t="s">
-        <v>109</v>
-      </c>
+      <c r="E28"/>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28"/>
+        <v>14</v>
+      </c>
+      <c r="H28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="B29" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="D29" t="n">
         <v>2018</v>
       </c>
       <c r="E29" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29"/>
+        <v>14</v>
+      </c>
+      <c r="H29" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="D30" t="n">
         <v>2020</v>
       </c>
       <c r="E30" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30"/>
+        <v>14</v>
+      </c>
+      <c r="H30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="B31" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="C31" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="D31" t="n">
         <v>2020</v>
       </c>
       <c r="E31" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31"/>
+        <v>14</v>
+      </c>
+      <c r="H31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="B32" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="C32" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="D32" t="n">
         <v>2020</v>
       </c>
       <c r="E32" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32"/>
+        <v>14</v>
+      </c>
+      <c r="H32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Treatment Papers/Treatment_Papers.xlsx
+++ b/Treatment Papers/Treatment_Papers.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
   <si>
     <t xml:space="preserve">Title</t>
   </si>
@@ -627,6 +627,21 @@
 Methods: Fifteen children, ages 3–9 years, participated in an open trial of an 8-week intervention. The primary symptom measure was the Disruptive Behavior Rating Scale (DBRS), and the secondary outcome measure was the Affective Reactivity Index (ARI) completed by the primary caregiver before and after treatment.
 Results: Treatment retention was high (80%), and parents reported a high level of satisfaction with the program. There was a significant reduction in the mean DBRS score from 13.5 ± 5.5 at baseline to 7.3 ± 3.4 at endpoint, p &lt; 0.001. There was also a significant reduction in the mean ARI irritability score from 7.2 ± 2.6 at baseline to 3.75 ± 2.1 at endpoint, p &lt; 0.01.
 Conclusions: This open pilot study supports the feasibility and acceptability of a digital parent training program for young children with disruptive behavior. Findings provide preliminary support for a clinically meaningful reduction of both disruptive behavior and irritability. Using the Tantrum Tool to deliver online treatment for children could increase access to first-line treatments for disruptive behavior and irritability in young children. ClinicalTrials.gov: NCT03697837.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Use of Standard Parenting Management Training in Addressing Disruptive Mood Dysregulation Disorder: A Pilot Study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gary Byrne, Graham Connon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journal of Contemporary Psychotherapy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1007/s10879-021-09489-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parent management training has demonstrated effectiveness in the treatment of child behavioural issues and associated conduct difficulties. Anger, aggression, and irritability are common symptoms amongst children presenting with disruptive mood dysregulation disorder. Currently, there are no well-established evidence-based interventions for children presenting with symptoms of disruptive mood dysregulation disorder. This pilot study aims to assess if a standard, well-established, parent management training program (group Triple P) may be effective in addressing disruptive mood dysregulation disorder symptoms. Thirteen parents of children who presented with disruptive mood dysregulation disorder or subthreshold symptoms completed the Triple P behavioural management program (Level 4). Post-treatment, parents reported no significant change on childhood irritability. However, parents noted significant improvement on child overt aggression, behavioural difficulties and an increase in child pro-social behaviours. Despite the many limitations inherent in this pilot study, results suggest that standard parent management training may be useful in addressing overt aggression but not irritability.</t>
   </si>
 </sst>
 </file>
@@ -1828,6 +1843,33 @@
       </c>
       <c r="I32"/>
     </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>155</v>
+      </c>
+      <c r="B33" t="s">
+        <v>156</v>
+      </c>
+      <c r="C33" t="s">
+        <v>157</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E33" t="s">
+        <v>158</v>
+      </c>
+      <c r="F33" t="s">
+        <v>159</v>
+      </c>
+      <c r="G33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Treatment Papers/Treatment_Papers.xlsx
+++ b/Treatment Papers/Treatment_Papers.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
   <si>
     <t xml:space="preserve">Title</t>
   </si>
@@ -642,6 +642,23 @@
   </si>
   <si>
     <t xml:space="preserve">Parent management training has demonstrated effectiveness in the treatment of child behavioural issues and associated conduct difficulties. Anger, aggression, and irritability are common symptoms amongst children presenting with disruptive mood dysregulation disorder. Currently, there are no well-established evidence-based interventions for children presenting with symptoms of disruptive mood dysregulation disorder. This pilot study aims to assess if a standard, well-established, parent management training program (group Triple P) may be effective in addressing disruptive mood dysregulation disorder symptoms. Thirteen parents of children who presented with disruptive mood dysregulation disorder or subthreshold symptoms completed the Triple P behavioural management program (Level 4). Post-treatment, parents reported no significant change on childhood irritability. However, parents noted significant improvement on child overt aggression, behavioural difficulties and an increase in child pro-social behaviours. Despite the many limitations inherent in this pilot study, results suggest that standard parent management training may be useful in addressing overt aggression but not irritability.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Across-subjects multiple baseline trial of exposure-based cognitive-behavioral therapy for severe irritability: a study protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reut Naim, Katharina Kircanski, Andrea Gold,  Ramaris E German, Mollie Davis, Samantha Perlstein, Michal Clayton, Olga Revzina, and Melissa A Brotman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dx.doi.org/10.1136%2Fbmjopen-2020-039169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction Irritability is defined as a tendency towards anger in response to frustration. Clinically, impairing irritability is a significant public health problem. There is a need for mechanism-based psychotherapies targeting severe irritability as it manifests in the context of disruptive mood dysregulation disorder (DMDD). This study protocol describes a randomised multiple baseline design testing the preliminary efficacy of a new treatment, exposure-based cognitive-behavioral therapy for severe irritability in youth, which also integrates components of parent management training. We will investigate associations of this intervention with primary clinical measures, as well as ecological momentary assessment measures.
+Methods and analysis Forty youth will be enrolled. Participants, aged 8–17 years, must present at least one of two core symptoms of DMDD: abnormal mood or increased reactivity to negative emotional stimuli, with severe impairment in one domain (home, school, peers) and moderate in another, or moderate impairment in at least two domains. Each participant is randomised to a 2-week, 4-week or 6-week baseline observation period, followed by 12 active treatment sessions. Clinical ratings are conducted at baseline, biweekly (clinician), weekly (parent/child) throughout treatment, post-treatment, and 3-month and 6-month follow-up (clinician). Clinician ratings on the Affective Reactivity Index and Clinical Global Impressions-Improvement scale for DMDD are our primary outcome measures. Secondary outcome measures include parent and child reports of irritability. Post hoc additional symptom measures include clinician, parent and self-ratings of depression, anxiety and overall functional impairment. Prospective, digitally based event sampling of symptoms is acquired for a week pre-treatment, mid-treatment and post-treatment. Based on our pathophysiological model of irritability implicating frustrative non-reward, aberrant threat processing and instrumental learning, we probe these three brain-based targets using functional MRI paradigms to assess target engagement.
+Ethics and dissemination The research project and all related materials were submitted and approved by the appropriate Institutional Review Board (IRB) of the National Institute of Mental Health (NIMH).
+Trial registration numbers NCT02531893 and NCT00025935.
+http://creativecommons.org/licenses/by-nc/4.0/
+This is an open access article distributed in accordance with the Creative Commons Attribution Non Commercial (CC BY-NC 4.0) license, which permits others to distribute, remix, adapt, build upon this work non-commercially, and license their derivative works on different terms, provided the original work is properly cited, appropriate credit is given, any changes made indicated, and the use is non-commercial. See: http://creativecommons.org/licenses/by-nc/4.0/.</t>
   </si>
 </sst>
 </file>
@@ -971,7 +988,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -1869,6 +1886,33 @@
         <v>15</v>
       </c>
       <c r="I33"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E34" t="s">
+        <v>162</v>
+      </c>
+      <c r="F34" t="s">
+        <v>163</v>
+      </c>
+      <c r="G34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
